--- a/target/test-classes/Capitals.xlsx
+++ b/target/test-classes/Capitals.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakir\IdeaProjects\qa001jc_seleniumproject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628BE433-75C2-4457-9209-0738BBD7AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2595AC19-03EB-4ECD-8C11-90620D12BC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28620" yWindow="-16335" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -142,12 +142,25 @@
   </si>
   <si>
     <t>Dev</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>54000</t>
+  </si>
+  <si>
+    <t>250000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -462,47 +475,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -510,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -518,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -526,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -534,7 +559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -542,7 +567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -550,7 +575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -558,23 +583,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
     </row>
